--- a/ToM/compVsMimic_Etude/EtudeFinale/Data/explication_colonne.xlsx
+++ b/ToM/compVsMimic_Etude/EtudeFinale/Data/explication_colonne.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="7485" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
   <si>
     <t>UserNum</t>
   </si>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t>H1</t>
-  </si>
-  <si>
-    <t>Daccord</t>
   </si>
   <si>
     <t>indifferent</t>
@@ -596,15 +593,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" customWidth="1"/>
     <col min="6" max="10" width="18.140625" bestFit="1" customWidth="1"/>
@@ -779,13 +776,13 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -860,13 +857,13 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -879,7 +876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -900,10 +897,10 @@
         <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
         <v>61</v>
-      </c>
-      <c r="E2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -917,10 +914,10 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -934,10 +931,10 @@
         <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -951,10 +948,10 @@
         <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -967,7 +964,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
